--- a/Excelカレンダー.xlsx
+++ b/Excelカレンダー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naomi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7C1B214-216A-4441-A704-A64765A64805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A658AE13-243D-4A5C-8A8C-F916F8D1890B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-52920" yWindow="990" windowWidth="24240" windowHeight="13020" xr2:uid="{6EA08B1D-C619-4BAC-9D8A-A8DFFE0FCBE1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EA08B1D-C619-4BAC-9D8A-A8DFFE0FCBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
@@ -105,23 +105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>元旦</t>
-    <rPh sb="0" eb="2">
-      <t>ガンタン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成人の日</t>
-    <rPh sb="0" eb="2">
-      <t>セイジン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>縦書きにこのようにメモを書きます。</t>
     <rPh sb="0" eb="2">
       <t>タテガ</t>
@@ -168,12 +151,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="185" formatCode="d"/>
-    <numFmt numFmtId="186" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="188" formatCode="\ 0;\-0;"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="d"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="\ 0;\-0;"/>
+    <numFmt numFmtId="184" formatCode="0;0;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +209,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -269,17 +270,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -303,23 +301,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="187" formatCode=";;;"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -331,18 +326,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="187" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="187" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="187" formatCode=";;;"/>
+      <numFmt numFmtId="179" formatCode=";;;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBFF8A4-2B06-45F3-BB2C-48239F381F2B}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -691,684 +675,755 @@
         <v>45292</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <f>$A$1-WEEKDAY($A$1)+1</f>
         <v>45291</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <f>A3+1</f>
         <v>45292</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <f t="shared" ref="C3:G3" si="0">B3+1</f>
         <v>45293</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f t="shared" si="0"/>
         <v>45294</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f t="shared" si="0"/>
         <v>45295</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f t="shared" si="0"/>
         <v>45296</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f t="shared" si="0"/>
         <v>45297</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="str">
-        <f>IFERROR(VLOOKUP(A3,$A$15:$C$45,3,0),"")</f>
+      <c r="A4" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A3,$A$17:$C$47,3,0),"")</f>
         <v/>
       </c>
-      <c r="B4" s="12" t="str">
-        <f t="shared" ref="B4:G4" si="1">IFERROR(VLOOKUP(B3,$A$15:$C$45,3,0),"")</f>
-        <v>元旦</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="11">
+        <f t="shared" ref="B4:G4" si="1">IFERROR(VLOOKUP(B3,$A$17:$C$47,3,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <f>A3+7</f>
         <v>45298</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <f t="shared" ref="B5:G5" si="2">B3+7</f>
         <v>45299</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <f t="shared" si="2"/>
         <v>45300</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f t="shared" si="2"/>
         <v>45301</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f t="shared" si="2"/>
         <v>45302</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f t="shared" si="2"/>
         <v>45303</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f t="shared" si="2"/>
         <v>45304</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="12">
-        <f>IFERROR(VLOOKUP(A5,$A$15:$C$45,3,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="12">
-        <f t="shared" ref="B6:G6" si="3">IFERROR(VLOOKUP(B5,$A$15:$C$45,3,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="A6" s="11">
+        <f>IFERROR(VLOOKUP(A5,$A$17:$C$47,3,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" ref="B6:G6" si="3">IFERROR(VLOOKUP(B5,$A$17:$C$47,3,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E6" s="12" t="str">
+      <c r="E6" s="11">
         <f t="shared" si="3"/>
-        <v>成人の日</v>
-      </c>
-      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <f>A5+7</f>
         <v>45305</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <f t="shared" ref="B7:G7" si="4">B5+7</f>
         <v>45306</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <f t="shared" si="4"/>
         <v>45307</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f t="shared" si="4"/>
         <v>45308</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f t="shared" si="4"/>
         <v>45309</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f t="shared" si="4"/>
         <v>45310</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f t="shared" si="4"/>
         <v>45311</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="12">
-        <f>IFERROR(VLOOKUP(A7,$A$15:$C$45,3,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="B8" s="12">
-        <f t="shared" ref="B8:G8" si="5">IFERROR(VLOOKUP(B7,$A$15:$C$45,3,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="A8" s="11">
+        <f>IFERROR(VLOOKUP(A7,$A$17:$C$47,3,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" ref="B8:G8" si="5">IFERROR(VLOOKUP(B7,$A$17:$C$47,3,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <f>A7+7</f>
         <v>45312</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <f t="shared" ref="B9:G9" si="6">B7+7</f>
         <v>45313</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <f t="shared" si="6"/>
         <v>45314</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f t="shared" si="6"/>
         <v>45315</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f t="shared" si="6"/>
         <v>45316</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f t="shared" si="6"/>
         <v>45317</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f t="shared" si="6"/>
         <v>45318</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="12">
-        <f>IFERROR(VLOOKUP(A9,$A$15:$C$45,3,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="12">
-        <f t="shared" ref="B10:G10" si="7">IFERROR(VLOOKUP(B9,$A$15:$C$45,3,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="A10" s="11">
+        <f>IFERROR(VLOOKUP(A9,$A$17:$C$47,3,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" ref="B10:G10" si="7">IFERROR(VLOOKUP(B9,$A$17:$C$47,3,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <f>A9+7</f>
         <v>45319</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <f t="shared" ref="B11:G11" si="8">B9+7</f>
         <v>45320</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <f t="shared" si="8"/>
         <v>45321</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f t="shared" si="8"/>
         <v>45322</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f t="shared" si="8"/>
         <v>45323</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f t="shared" si="8"/>
         <v>45324</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f t="shared" si="8"/>
         <v>45325</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
+      <c r="A12" s="13">
+        <f>IFERROR(VLOOKUP(A11,$A$17:$C$47,3,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="13">
+        <f t="shared" ref="B12:G12" si="9">IFERROR(VLOOKUP(B11,$A$17:$C$47,3,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F12" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G12" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="12">
+        <f>A11+7</f>
+        <v>45326</v>
+      </c>
+      <c r="B13" s="12">
+        <f t="shared" ref="B13:G13" si="10">B11+7</f>
+        <v>45327</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="10"/>
+        <v>45328</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="10"/>
+        <v>45329</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="10"/>
+        <v>45330</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="10"/>
+        <v>45331</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="10"/>
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="str">
+        <f>IFERROR(VLOOKUP(A13,$A$17:$C$47,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="B14" s="14" t="str">
+        <f t="shared" ref="B14:G14" si="11">IFERROR(VLOOKUP(B13,$A$17:$C$47,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="D14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
         <f>A1</f>
         <v>45292</v>
       </c>
-      <c r="B15" s="5" t="str">
-        <f>TEXT(A15,"(aaa)")</f>
+      <c r="B17" s="4" t="str">
+        <f>TEXT(A17,"(aaa)")</f>
         <v>(月)</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="6">
-        <f>A15+1</f>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <f>A17+1</f>
         <v>45293</v>
       </c>
-      <c r="B16" s="5" t="str">
-        <f t="shared" ref="B16:B45" si="9">TEXT(A16,"(aaa)")</f>
+      <c r="B18" s="4" t="str">
+        <f t="shared" ref="B18:B47" si="12">TEXT(A18,"(aaa)")</f>
         <v>(火)</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="6">
-        <f t="shared" ref="A17:A80" si="10">A16+1</f>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <f t="shared" ref="A19:A47" si="13">A18+1</f>
         <v>45294</v>
       </c>
-      <c r="B17" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B19" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(水)</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="6">
-        <f t="shared" si="10"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <f t="shared" si="13"/>
         <v>45295</v>
       </c>
-      <c r="B18" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B20" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(木)</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="6">
-        <f t="shared" si="10"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <f t="shared" si="13"/>
         <v>45296</v>
       </c>
-      <c r="B19" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B21" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(金)</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="6">
-        <f t="shared" si="10"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <f t="shared" si="13"/>
         <v>45297</v>
       </c>
-      <c r="B20" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B22" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(土)</v>
       </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="6">
-        <f t="shared" si="10"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
+        <f t="shared" si="13"/>
         <v>45298</v>
       </c>
-      <c r="B21" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B23" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(日)</v>
       </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="6">
-        <f t="shared" si="10"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="5">
+        <f t="shared" si="13"/>
         <v>45299</v>
       </c>
-      <c r="B22" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B24" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(月)</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="6">
-        <f t="shared" si="10"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="5">
+        <f t="shared" si="13"/>
         <v>45300</v>
       </c>
-      <c r="B23" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B25" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(火)</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="6">
-        <f t="shared" si="10"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
+        <f t="shared" si="13"/>
         <v>45301</v>
       </c>
-      <c r="B24" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B26" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(水)</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="6">
-        <f t="shared" si="10"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="5">
+        <f t="shared" si="13"/>
         <v>45302</v>
       </c>
-      <c r="B25" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B27" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(木)</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="6">
-        <f t="shared" si="10"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="5">
+        <f t="shared" si="13"/>
         <v>45303</v>
       </c>
-      <c r="B26" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B28" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(金)</v>
       </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="6">
-        <f t="shared" si="10"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="5">
+        <f t="shared" si="13"/>
         <v>45304</v>
       </c>
-      <c r="B27" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B29" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(土)</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="6">
-        <f t="shared" si="10"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
+        <f t="shared" si="13"/>
         <v>45305</v>
       </c>
-      <c r="B28" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B30" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(日)</v>
       </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="6">
-        <f t="shared" si="10"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="5">
+        <f t="shared" si="13"/>
         <v>45306</v>
       </c>
-      <c r="B29" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B31" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(月)</v>
       </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="6">
-        <f t="shared" si="10"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
+        <f t="shared" si="13"/>
         <v>45307</v>
       </c>
-      <c r="B30" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B32" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(火)</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="6">
-        <f t="shared" si="10"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="5">
+        <f t="shared" si="13"/>
         <v>45308</v>
       </c>
-      <c r="B31" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B33" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(水)</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="6">
-        <f t="shared" si="10"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="5">
+        <f t="shared" si="13"/>
         <v>45309</v>
       </c>
-      <c r="B32" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B34" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(木)</v>
       </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="6">
-        <f t="shared" si="10"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="5">
+        <f t="shared" si="13"/>
         <v>45310</v>
       </c>
-      <c r="B33" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B35" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(金)</v>
       </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="6">
-        <f t="shared" si="10"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="5">
+        <f t="shared" si="13"/>
         <v>45311</v>
       </c>
-      <c r="B34" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B36" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(土)</v>
       </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="6">
-        <f t="shared" si="10"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="5">
+        <f t="shared" si="13"/>
         <v>45312</v>
       </c>
-      <c r="B35" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B37" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(日)</v>
       </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="6">
-        <f t="shared" si="10"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="5">
+        <f t="shared" si="13"/>
         <v>45313</v>
       </c>
-      <c r="B36" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B38" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(月)</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="6">
-        <f t="shared" si="10"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="5">
+        <f t="shared" si="13"/>
         <v>45314</v>
       </c>
-      <c r="B37" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B39" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(火)</v>
       </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="6">
-        <f t="shared" si="10"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="5">
+        <f t="shared" si="13"/>
         <v>45315</v>
       </c>
-      <c r="B38" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B40" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(水)</v>
       </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="6">
-        <f t="shared" si="10"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="5">
+        <f t="shared" si="13"/>
         <v>45316</v>
       </c>
-      <c r="B39" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B41" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(木)</v>
       </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="6">
-        <f t="shared" si="10"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="5">
+        <f t="shared" si="13"/>
         <v>45317</v>
       </c>
-      <c r="B40" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B42" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(金)</v>
       </c>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="6">
-        <f t="shared" si="10"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="5">
+        <f t="shared" si="13"/>
         <v>45318</v>
       </c>
-      <c r="B41" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B43" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(土)</v>
       </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="6">
-        <f t="shared" si="10"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="5">
+        <f t="shared" si="13"/>
         <v>45319</v>
       </c>
-      <c r="B42" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B44" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(日)</v>
       </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="6">
-        <f t="shared" si="10"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="5">
+        <f t="shared" si="13"/>
         <v>45320</v>
       </c>
-      <c r="B43" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B45" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(月)</v>
       </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="6">
-        <f t="shared" si="10"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="5">
+        <f t="shared" si="13"/>
         <v>45321</v>
       </c>
-      <c r="B44" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B46" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(火)</v>
       </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="6">
-        <f t="shared" si="10"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="5">
+        <f t="shared" si="13"/>
         <v>45322</v>
       </c>
-      <c r="B45" s="5" t="str">
-        <f t="shared" si="9"/>
+      <c r="B47" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>(水)</v>
       </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
@@ -1472,20 +1527,26 @@
     <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
     </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A15:B45">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>MONTH(A15)&lt;&gt;MONTH($A$1)</formula>
+  <conditionalFormatting sqref="A17:B47">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MONTH(A17)&lt;&gt;MONTH($A$1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:G11">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="A11:G13">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MONTH(A11)&lt;&gt;MONTH($A$1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MONTH(A3)&lt;&gt;MONTH($A$1)</formula>
     </cfRule>
   </conditionalFormatting>
